--- a/web-app/data/staff.xlsx
+++ b/web-app/data/staff.xlsx
@@ -41,7 +41,7 @@
     <t>Mgr name</t>
   </si>
   <si>
-    <t>Programme</t>
+    <t>Programme1</t>
   </si>
   <si>
     <t>Activeprofile</t>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
